--- a/va_facility_data_2025-02-20/Audie L. Murphy Memorial Veterans' Hospital - Facility Data.xlsx"; filename*=UTF-8''Audie%20L.%20Murphy%20Memorial%20Veterans%27%20Hospital%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Audie L. Murphy Memorial Veterans' Hospital - Facility Data.xlsx"; filename*=UTF-8''Audie%20L.%20Murphy%20Memorial%20Veterans%27%20Hospital%20-%20Facility%20Data.xlsx
@@ -2,12 +2,12 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Effective Care" sheetId="1" r:id="R4ec8220c603a4b0a81d459c2e67a788a"/>
-    <x:sheet name="Safe Care" sheetId="2" r:id="Re368b68af2214373a0fba060a434aba5"/>
-    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="R1f26c78120cf45fea1cac04429f40f55"/>
-    <x:sheet name="Wait Times" sheetId="4" r:id="R41013a6f27ab4f0da843d2a8a9bef252"/>
-    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="Rfb39b3d2d19c40949fe84c92f2c6fca6"/>
-    <x:sheet name="Outpatient Score" sheetId="6" r:id="R4afc34526e734453be61caabc14b3c0f"/>
+    <x:sheet name="Effective Care" sheetId="1" r:id="R4c7fec1f67b64fbf9617af03d4a1cac3"/>
+    <x:sheet name="Safe Care" sheetId="2" r:id="R15da4c66a4094a5c8b1d5a3043ee3d54"/>
+    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="R0aac06c252284b298427087b8e7d3665"/>
+    <x:sheet name="Wait Times" sheetId="4" r:id="R509e829f267940efb9e5cc06d20f36c8"/>
+    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="Recf97cbaed724167b9c097712b3cf255"/>
+    <x:sheet name="Outpatient Score" sheetId="6" r:id="Rb080202f338842ec8698e85f73aa7749"/>
   </x:sheets>
 </x:workbook>
 </file>
